--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="containsSimple" sheetId="1" r:id="rId1"/>
-    <sheet name="containsArrays" sheetId="2" r:id="rId2"/>
-    <sheet name="containsAny" sheetId="5" r:id="rId3"/>
+    <sheet name="isEmpty" sheetId="6" r:id="rId1"/>
+    <sheet name="isNotEmpty" sheetId="7" r:id="rId2"/>
+    <sheet name="contains" sheetId="1" r:id="rId3"/>
+    <sheet name="containsArrays" sheetId="2" r:id="rId4"/>
+    <sheet name="containsAny" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="254">
   <si>
     <r>
       <t xml:space="preserve">Method boolean </t>
@@ -1326,6 +1328,608 @@
   </si>
   <si>
     <t>Method boolean containsAnyString(String mydata, String element)</t>
+  </si>
+  <si>
+    <t>Test containsInteger containsIntegerTest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsInteger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Integer[] mydata, Integer element)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsByteValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ByteValue[] mydata, ByteValue element)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsShortValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ShortValue[] mydata, ShortValue element)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test containsByteValue containsByteValueTest</t>
+  </si>
+  <si>
+    <t>Test containsShortValue containsShortValueTest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsLongValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LongValue[] mydata, LongValue element)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsDoubleValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(DoubleValue[] mydata, DoubleValue element)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsFloatValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(FloatValue[] mydata, FloatValue element)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test containsLongValue containsLongValueTest</t>
+  </si>
+  <si>
+    <t>Test containsFloatValue containsFloatValueTest</t>
+  </si>
+  <si>
+    <t>Test containsDoubleValue containsDoubleValueTest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsBigIntegerValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(BigIntegerValue[] mydata, BigIntegerValue element)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test containsBigIntegerValue containsBigIntegerValueTest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containsBigDecimalValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(BigDecimalValue[] mydata, BigDecimalValue element)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test containsBigDecimalValue containsBigDecimalValueTest</t>
+  </si>
+  <si>
+    <t>2,3,,4</t>
+  </si>
+  <si>
+    <t>Test isEmptybyte isEmptybyteTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyByte isEmptyByteTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyByteValue isEmptyByteValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyshort isEmptyshortTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyShort isEmptyShortTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyShortValue isEmptyShortValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyint isEmptyintTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyInteger isEmptyIntegerTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyIntValue isEmptyIntValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptylong isEmptylongTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyLong isEmptyLongTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyLongValue isEmptyLongValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyfloat isEmptyfloatTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyFloat isEmptyFloatTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyFloatValue isEmptyFloatValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptydouble isEmptydoubleTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyDouble isEmptyDoubleTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyDoubleValue isEmptyDoubleValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptychar isEmptycharTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyCharacter isEmptyCharacterTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyboolean isEmptybooleanTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyBoolean isEmptyBooleanTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyBigInteger isEmptyBigIntegerTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyBigIntegerValue isEmptyBigIntegerValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyBigDecimal isEmptyBigDecimalTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyBigDecimalValue isEmptyBigDecimalValueTest</t>
+  </si>
+  <si>
+    <t>Test isEmptyString isEmptyStringTest</t>
+  </si>
+  <si>
+    <t>a,b,f</t>
+  </si>
+  <si>
+    <t>ab,cd</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>1,2,,,</t>
+  </si>
+  <si>
+    <t>t,y,,,</t>
+  </si>
+  <si>
+    <t>n,n,,,</t>
+  </si>
+  <si>
+    <t>a,,,</t>
+  </si>
+  <si>
+    <t>return isEmpty(mydata);</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptybyte(byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyByte(Byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyByteValue(ByteValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptylong(long[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyLong(Long[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyLongValue(LongValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyfloat(float[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyFloat(Float[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyshort(short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyShort(Short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyint(int[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyIntValue(IntValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyInteger(Integer[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyShortValue(ShortValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyFloatValue(FloatValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptydouble(double[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyDouble(Double[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyDoubleValue(DoubleValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptychar(char[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyCharacter(Character[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyboolean(boolean[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyBoolean(Boolean[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyBigInteger(BigInteger[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyBigIntegerValue(BigIntegerValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyBigDecimal(BigDecimal[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyBigDecimalValue(BigDecimalValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isEmptyString(String[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptybyte(byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptybyte isNotEmptybyteTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyByte isNotEmptyByteTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyByteValue isNotEmptyByteValueTest</t>
+  </si>
+  <si>
+    <t>return isNotEmpty(mydata);</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyByte(Byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyByteValue(ByteValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyshort(short[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyshort isNotEmptyshortTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyShort isNotEmptyShortTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyShortValue isNotEmptyShortValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyShort(Short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyShortValue(ShortValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyint(int[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyint isNotEmptyintTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyInteger isNotEmptyIntegerTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyIntValue isNotEmptyIntValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyInteger(Integer[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyIntValue(IntValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptylong(long[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptylong isNotEmptylongTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyLong isNotEmptyLongTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyLongValue isNotEmptyLongValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyLong(Long[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyLongValue(LongValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyfloat(float[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyfloat isNotEmptyfloatTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyFloat isNotEmptyFloatTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyFloatValue isNotEmptyFloatValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyFloat(Float[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyFloatValue(FloatValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptydouble(double[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptydouble isNotEmptydoubleTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyDouble isNotEmptyDoubleTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyDoubleValue isNotEmptyDoubleValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyDouble(Double[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyDoubleValue(DoubleValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptychar(char[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptychar isNotEmptycharTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyCharacter isNotEmptyCharacterTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyCharacter(Character[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyboolean(boolean[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyboolean isNotEmptybooleanTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyBoolean isNotEmptyBooleanTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyBoolean(Boolean[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyBigInteger(BigInteger[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyBigInteger isNotEmptyBigIntegerTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyBigIntegerValue isNotEmptyBigIntegerValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyBigIntegerValue(BigIntegerValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyBigDecimal(BigDecimal[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyBigDecimal isNotEmptyBigDecimalTest</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyBigDecimalValue isNotEmptyBigDecimalValueTest</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyBigDecimalValue(BigDecimalValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method boolean isNotEmptyString(String[] mydata)</t>
+  </si>
+  <si>
+    <t>Test isNotEmptyString isNotEmptyStringTest</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1432,11 +2036,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1740,2077 +2349,1737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:P150"/>
+  <dimension ref="B3:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132:K137"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="74.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="74.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="25" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="N3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="G3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="G4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="16" t="s">
+      <c r="H4" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="J4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="G5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="H5" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="4" t="s">
+      <c r="J5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16" t="s">
+      <c r="E6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="16">
-        <v>1</v>
-      </c>
-      <c r="P6" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="H6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="17">
-        <v>4</v>
-      </c>
-      <c r="P8" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="17">
-        <v>-4</v>
-      </c>
-      <c r="P9" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
+      <c r="K6" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="N10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="N12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="J16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="N16" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="J17" s="4" t="s">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="E17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="G17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="16" t="s">
+      <c r="H17" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="J18" s="4" t="s">
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="D18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="E18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="G18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="16" t="s">
+      <c r="H18" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="J19" s="4" t="s">
+      <c r="J18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="D19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="16" t="s">
+      <c r="E19" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="16">
-        <v>1</v>
-      </c>
-      <c r="P19" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="H19" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="4">
-        <v>4</v>
-      </c>
-      <c r="L21" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="16">
-        <v>4</v>
-      </c>
-      <c r="P21" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="J22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="16">
-        <v>-4</v>
-      </c>
-      <c r="P22" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-      <c r="N23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="6"/>
-      <c r="N24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="6"/>
-      <c r="N25" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="K19" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1</v>
+      </c>
+      <c r="K21" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="D22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="J29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="E30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-      <c r="J31" s="4" t="s">
+      <c r="G30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="D31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="E31" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-      <c r="J32" s="4" t="s">
+      <c r="G31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="D32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="6"/>
-      <c r="J33" s="4" t="s">
+      <c r="E32" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="6"/>
-      <c r="J34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="4">
-        <v>4</v>
-      </c>
-      <c r="L34" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="6"/>
-      <c r="J35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L35" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="6"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="N39" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-    </row>
-    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="H32" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="22">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
+        <v>1</v>
+      </c>
+      <c r="K34" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="D35" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="G42" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="J42" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="4" t="s">
+      <c r="E43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="G43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O40" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="16" t="s">
+      <c r="H43" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="6"/>
-      <c r="J41" s="4" t="s">
+      <c r="J43" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="4" t="s">
+      <c r="E44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="16" t="s">
+      <c r="G44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P41" s="16" t="s">
+      <c r="H44" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="6"/>
-      <c r="J42" s="4" t="s">
+      <c r="J44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-      <c r="L42" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" s="16" t="s">
+      <c r="E45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="16">
-        <v>1</v>
-      </c>
-      <c r="P42" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="H45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O43" s="16">
-        <v>0</v>
-      </c>
-      <c r="P43" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" s="4">
-        <v>4</v>
-      </c>
-      <c r="L44" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O44" s="16">
-        <v>4</v>
-      </c>
-      <c r="P44" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="J45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L45" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" s="16">
-        <v>-4</v>
-      </c>
-      <c r="P45" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="N46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
-      <c r="N47" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O47" s="16"/>
-      <c r="P47" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
-      <c r="N48" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O48" s="17">
-        <v>0</v>
-      </c>
-      <c r="P48" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="N52" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-    </row>
-    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="4" t="s">
+      <c r="K45" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="22">
+        <v>1</v>
+      </c>
+      <c r="E47" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>1</v>
+      </c>
+      <c r="H47" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="22">
+        <v>1</v>
+      </c>
+      <c r="K47" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="G55" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="26"/>
+      <c r="J55" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K55" s="26"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="4" t="s">
+      <c r="E56" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="G56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" s="16" t="s">
+      <c r="H56" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
-      <c r="J54" s="4" t="s">
+      <c r="J56" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="4" t="s">
+      <c r="E57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N54" s="16" t="s">
+      <c r="G57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P54" s="16" t="s">
+      <c r="H57" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="J55" s="4" t="s">
+      <c r="J57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="D58" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="4">
-        <v>1</v>
-      </c>
-      <c r="L55" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N55" s="16" t="s">
+      <c r="E58" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O55" s="16">
-        <v>1</v>
-      </c>
-      <c r="P55" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J56" s="4" t="s">
+      <c r="H58" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="4">
-        <v>0</v>
-      </c>
-      <c r="L56" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O56" s="16">
-        <v>0</v>
-      </c>
-      <c r="P56" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="4">
-        <v>4</v>
-      </c>
-      <c r="L57" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O57" s="16">
-        <v>4</v>
-      </c>
-      <c r="P57" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F58" s="6"/>
-      <c r="J58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L58" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N58" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O58" s="16">
-        <v>-4</v>
-      </c>
-      <c r="P58" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="6"/>
-      <c r="J59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L59" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P59" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="6"/>
-      <c r="N60" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O60" s="16"/>
-      <c r="P60" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
-      <c r="N61" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O61" s="16"/>
-      <c r="P61" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="N62" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O62" s="17">
-        <v>0</v>
-      </c>
-      <c r="P62" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F63" s="3"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F65" s="3"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="N66" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-    </row>
-    <row r="67" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" s="4" t="s">
+      <c r="K58" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="22">
+        <v>1</v>
+      </c>
+      <c r="E60" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>1</v>
+      </c>
+      <c r="H60" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="22">
+        <v>1</v>
+      </c>
+      <c r="K60" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="D61" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K61" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="G68" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="J68" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68" s="26"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="4" t="s">
+      <c r="E69" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="G69" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O67" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="16" t="s">
+      <c r="H69" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="6"/>
-      <c r="J68" s="4" t="s">
+      <c r="J69" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="D70" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" s="4" t="s">
+      <c r="E70" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N68" s="16" t="s">
+      <c r="G70" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P68" s="16" t="s">
+      <c r="H70" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="6"/>
-      <c r="J69" s="4" t="s">
+      <c r="J70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="D71" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K69" s="4">
-        <v>1</v>
-      </c>
-      <c r="L69" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N69" s="16" t="s">
+      <c r="E71" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O69" s="16">
-        <v>1</v>
-      </c>
-      <c r="P69" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="4" t="s">
+      <c r="H71" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K70" s="4">
-        <v>0</v>
-      </c>
-      <c r="L70" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O70" s="16">
-        <v>0</v>
-      </c>
-      <c r="P70" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K71" s="4">
-        <v>4</v>
-      </c>
-      <c r="L71" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N71" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O71" s="16">
-        <v>4</v>
-      </c>
-      <c r="P71" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="6"/>
-      <c r="J72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K72" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L72" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N72" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O72" s="16">
-        <v>-4</v>
-      </c>
-      <c r="P72" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="6"/>
-      <c r="J73" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L73" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N73" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P73" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="N74" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O74" s="16"/>
-      <c r="P74" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="6"/>
+      <c r="K71" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="22"/>
+      <c r="H72" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="22">
+        <v>1</v>
+      </c>
+      <c r="E73" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="22">
+        <v>1</v>
+      </c>
+      <c r="H73" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="22">
+        <v>1</v>
+      </c>
+      <c r="K73" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="D74" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K74" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
       <c r="J75" s="6"/>
-      <c r="N75" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O75" s="16"/>
-      <c r="P75" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F76" s="3"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="N76" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O76" s="17">
-        <v>0</v>
-      </c>
-      <c r="P76" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-    </row>
-    <row r="78" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J78" s="6"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-    </row>
-    <row r="79" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F79" s="3"/>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="N80" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-    </row>
-    <row r="81" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="4" t="s">
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="G81" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L81" s="4" t="s">
+      <c r="E82" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N81" s="16" t="s">
+      <c r="G82" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O81" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P81" s="16" t="s">
+      <c r="H82" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="6"/>
-      <c r="J82" s="4" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="D83" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="4" t="s">
+      <c r="E83" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N82" s="16" t="s">
+      <c r="G83" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O82" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P82" s="16" t="s">
+      <c r="H83" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="6"/>
-      <c r="J83" s="4" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="D84" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="22">
+        <v>1</v>
+      </c>
+      <c r="E86" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <v>1</v>
+      </c>
+      <c r="H86" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="D87" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="G94" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H94" s="26"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D100" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D101" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H101" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="G105" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H105" s="26"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D107" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="4">
-        <v>1</v>
-      </c>
-      <c r="L83" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N83" s="16" t="s">
+      <c r="E108" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O83" s="16">
-        <v>1</v>
-      </c>
-      <c r="P83" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J84" s="4" t="s">
+      <c r="H108" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="22"/>
+      <c r="E109" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="22"/>
+      <c r="H109" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" s="22">
+        <v>1</v>
+      </c>
+      <c r="E110" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" s="22">
+        <v>1</v>
+      </c>
+      <c r="H110" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H111" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="26"/>
+      <c r="G117" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H117" s="26"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D120" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K84" s="4">
-        <v>0</v>
-      </c>
-      <c r="L84" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N84" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O84" s="16">
-        <v>0</v>
-      </c>
-      <c r="P84" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" s="4" t="s">
+      <c r="E120" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K85" s="4">
-        <v>5</v>
-      </c>
-      <c r="L85" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N85" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O85" s="16">
-        <v>5</v>
-      </c>
-      <c r="P85" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F86" s="6"/>
-      <c r="J86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L86" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N86" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P86" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="N87" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O87" s="16"/>
-      <c r="P87" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="N88" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O88" s="16"/>
-      <c r="P88" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="N89" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O89" s="17">
-        <v>0</v>
-      </c>
-      <c r="P89" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="6"/>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="6"/>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F92" s="3"/>
-      <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J93" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="N93" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-    </row>
-    <row r="94" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="4" t="s">
+      <c r="H120" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" s="22"/>
+      <c r="E121" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="22">
+        <v>1</v>
+      </c>
+      <c r="E122" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="22">
+        <v>1</v>
+      </c>
+      <c r="H122" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E123" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H123" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" s="27"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L94" s="4" t="s">
+      <c r="E131" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N94" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O94" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P94" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J95" s="4" t="s">
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L95" s="4" t="s">
+      <c r="E132" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N95" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O95" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P95" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J96" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L96" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N96" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P96" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L97" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N97" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P97" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L98" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N98" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P98" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J99" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K99" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L99" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N99" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P99" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J100" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L100" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N100" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P100" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J101" s="6"/>
-    </row>
-    <row r="102" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J102" s="6"/>
-    </row>
-    <row r="103" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J103" s="6"/>
-    </row>
-    <row r="104" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-    </row>
-    <row r="105" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K107" s="4">
-        <v>1</v>
-      </c>
-      <c r="L107" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K108" s="16">
-        <v>0</v>
-      </c>
-      <c r="L108" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K109" s="4">
-        <v>4</v>
-      </c>
-      <c r="L109" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K110" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L110" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J111" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K111" s="16"/>
-      <c r="L111" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="J112" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K112" s="17">
-        <v>0</v>
-      </c>
-      <c r="L112" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F116" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-    </row>
-    <row r="117" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K119" s="4">
-        <v>1</v>
-      </c>
-      <c r="L119" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K120" s="4">
-        <v>0</v>
-      </c>
-      <c r="L120" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K121" s="4">
-        <v>4</v>
-      </c>
-      <c r="L121" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K122" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L122" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L123" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J124" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K124" s="16"/>
-      <c r="L124" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J125" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K125" s="17">
-        <v>0</v>
-      </c>
-      <c r="L125" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-    </row>
-    <row r="129" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K129" s="21"/>
-      <c r="L129" s="21"/>
-    </row>
-    <row r="130" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L131" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1</v>
-      </c>
-      <c r="L132" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K133" s="4">
-        <v>0</v>
-      </c>
-      <c r="L133" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K134" s="4">
-        <v>4</v>
-      </c>
-      <c r="L134" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K135" s="4">
-        <v>-4</v>
-      </c>
-      <c r="L135" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J136" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K136" s="16"/>
-      <c r="L136" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J137" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K137" s="17">
-        <v>0</v>
-      </c>
-      <c r="L137" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-    </row>
-    <row r="141" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F141" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="K141" s="22"/>
-      <c r="L141" s="22"/>
-    </row>
-    <row r="142" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F142" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K142" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L142" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K143" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L143" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K144" s="17">
-        <v>1</v>
-      </c>
-      <c r="L144" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K145" s="17">
-        <v>0</v>
-      </c>
-      <c r="L145" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K146" s="17">
-        <v>5</v>
-      </c>
-      <c r="L146" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K147" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L147" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K148" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L148" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J149" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K149" s="16"/>
-      <c r="L149" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J150" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K150" s="17">
-        <v>0</v>
-      </c>
-      <c r="L150" s="17" t="b">
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="12"/>
+      <c r="D136" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="23" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="J129:L129"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N52:P52"/>
+  <mergeCells count="27">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3818,6 +4087,4524 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="74.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="25" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="G3" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="D18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="D19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="H21" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1</v>
+      </c>
+      <c r="K21" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="D22" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="J29" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="D31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="D32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1</v>
+      </c>
+      <c r="H34" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="24">
+        <v>1</v>
+      </c>
+      <c r="K34" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="D35" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="G42" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="J42" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="24">
+        <v>1</v>
+      </c>
+      <c r="K47" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="G55" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H55" s="26"/>
+      <c r="J55" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" s="26"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="D58" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="24">
+        <v>1</v>
+      </c>
+      <c r="E60" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="24">
+        <v>1</v>
+      </c>
+      <c r="H60" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="24">
+        <v>1</v>
+      </c>
+      <c r="K60" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="D61" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K61" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="G68" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="J68" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" s="26"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="D70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="D71" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="24">
+        <v>1</v>
+      </c>
+      <c r="E73" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="24">
+        <v>1</v>
+      </c>
+      <c r="H73" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="24">
+        <v>1</v>
+      </c>
+      <c r="K73" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="D74" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K74" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="G81" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="D83" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="D84" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="24">
+        <v>1</v>
+      </c>
+      <c r="E86" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="24">
+        <v>1</v>
+      </c>
+      <c r="H86" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="D87" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="G94" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H94" s="26"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D100" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D101" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H101" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="G105" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H105" s="26"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D107" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="24"/>
+      <c r="H109" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="24">
+        <v>1</v>
+      </c>
+      <c r="E110" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="24">
+        <v>1</v>
+      </c>
+      <c r="H110" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H111" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E117" s="26"/>
+      <c r="G117" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H117" s="26"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D120" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="24"/>
+      <c r="H121" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="24">
+        <v>1</v>
+      </c>
+      <c r="E122" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" s="24">
+        <v>1</v>
+      </c>
+      <c r="H122" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E123" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H123" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="27"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="12"/>
+      <c r="D136" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="74.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="20">
+        <v>1</v>
+      </c>
+      <c r="N6" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="17">
+        <v>4</v>
+      </c>
+      <c r="J8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="21">
+        <v>4</v>
+      </c>
+      <c r="N8" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="17">
+        <v>-4</v>
+      </c>
+      <c r="J9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="21">
+        <v>-4</v>
+      </c>
+      <c r="N9" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="L16" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="20">
+        <v>1</v>
+      </c>
+      <c r="N19" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="16">
+        <v>4</v>
+      </c>
+      <c r="J21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="20">
+        <v>4</v>
+      </c>
+      <c r="N21" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="16">
+        <v>-4</v>
+      </c>
+      <c r="J22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="20">
+        <v>-4</v>
+      </c>
+      <c r="N22" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="H23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="H29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="L29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="20">
+        <v>1</v>
+      </c>
+      <c r="J32" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="20">
+        <v>1</v>
+      </c>
+      <c r="N32" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0</v>
+      </c>
+      <c r="N33" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="20">
+        <v>4</v>
+      </c>
+      <c r="J34" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="20">
+        <v>4</v>
+      </c>
+      <c r="N34" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="D35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F35" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="20">
+        <v>-4</v>
+      </c>
+      <c r="J35" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="20">
+        <v>-4</v>
+      </c>
+      <c r="N35" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0</v>
+      </c>
+      <c r="J38" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="H42" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="L42" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1</v>
+      </c>
+      <c r="J45" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="20">
+        <v>1</v>
+      </c>
+      <c r="N45" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M46" s="20">
+        <v>0</v>
+      </c>
+      <c r="N46" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4</v>
+      </c>
+      <c r="F47" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="16">
+        <v>4</v>
+      </c>
+      <c r="J47" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="20">
+        <v>4</v>
+      </c>
+      <c r="N47" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F48" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="16">
+        <v>-4</v>
+      </c>
+      <c r="J48" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="20">
+        <v>-4</v>
+      </c>
+      <c r="N48" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="H49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="20"/>
+      <c r="N50" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" s="21">
+        <v>0</v>
+      </c>
+      <c r="N51" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="H55" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="L55" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="D58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="16">
+        <v>1</v>
+      </c>
+      <c r="J58" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="20">
+        <v>1</v>
+      </c>
+      <c r="N58" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" s="20">
+        <v>0</v>
+      </c>
+      <c r="N59" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="16">
+        <v>4</v>
+      </c>
+      <c r="J60" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="20">
+        <v>4</v>
+      </c>
+      <c r="N60" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="D61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F61" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="16">
+        <v>-4</v>
+      </c>
+      <c r="J61" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="20">
+        <v>-4</v>
+      </c>
+      <c r="N61" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="D62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="16"/>
+      <c r="J63" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="20"/>
+      <c r="N63" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="16"/>
+      <c r="J64" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="20"/>
+      <c r="N64" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="H65" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" s="17">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M65" s="21">
+        <v>0</v>
+      </c>
+      <c r="N65" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="D68" s="6"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="H69" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="L69" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="D71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="D72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="16">
+        <v>1</v>
+      </c>
+      <c r="J72" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="20">
+        <v>1</v>
+      </c>
+      <c r="N72" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="20">
+        <v>0</v>
+      </c>
+      <c r="N73" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="4">
+        <v>4</v>
+      </c>
+      <c r="F74" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="16">
+        <v>4</v>
+      </c>
+      <c r="J74" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" s="20">
+        <v>4</v>
+      </c>
+      <c r="N74" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="D75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F75" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="16">
+        <v>-4</v>
+      </c>
+      <c r="J75" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" s="20">
+        <v>-4</v>
+      </c>
+      <c r="N75" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="D76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="H77" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" s="20"/>
+      <c r="N77" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="H78" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" s="20"/>
+      <c r="N78" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="D79" s="6"/>
+      <c r="H79" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M79" s="21">
+        <v>0</v>
+      </c>
+      <c r="N79" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="81" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="3"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="H83" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="D85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="D86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="16">
+        <v>1</v>
+      </c>
+      <c r="J86" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5</v>
+      </c>
+      <c r="F88" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="16">
+        <v>5</v>
+      </c>
+      <c r="J88" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="D89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="H90" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="H91" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91" s="16"/>
+      <c r="J91" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="H92" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="17">
+        <v>0</v>
+      </c>
+      <c r="J92" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="H96" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="H107" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="20">
+        <v>1</v>
+      </c>
+      <c r="J110" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="16">
+        <v>0</v>
+      </c>
+      <c r="F111" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111" s="20">
+        <v>0</v>
+      </c>
+      <c r="J111" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="4">
+        <v>4</v>
+      </c>
+      <c r="F112" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="20">
+        <v>4</v>
+      </c>
+      <c r="J112" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F113" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="20">
+        <v>-4</v>
+      </c>
+      <c r="J113" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D115" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="17">
+        <v>0</v>
+      </c>
+      <c r="F115" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115" s="21">
+        <v>0</v>
+      </c>
+      <c r="J115" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="H119" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" s="20">
+        <v>1</v>
+      </c>
+      <c r="J122" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123" s="20">
+        <v>0</v>
+      </c>
+      <c r="J123" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="4">
+        <v>4</v>
+      </c>
+      <c r="F124" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="20">
+        <v>20</v>
+      </c>
+      <c r="J124" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F125" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" s="20">
+        <v>-4</v>
+      </c>
+      <c r="J125" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D127" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D128" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E128" s="17">
+        <v>0</v>
+      </c>
+      <c r="F128" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I128" s="21">
+        <v>0</v>
+      </c>
+      <c r="J128" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="17">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136" s="17">
+        <v>0</v>
+      </c>
+      <c r="F136" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="17">
+        <v>5</v>
+      </c>
+      <c r="F137" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C138" s="12"/>
+      <c r="D138" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C139" s="12"/>
+      <c r="D139" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D140" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="F140" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D141" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="17">
+        <v>0</v>
+      </c>
+      <c r="F141" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H29:J29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:P152"/>
   <sheetViews>
@@ -3844,16 +8631,16 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
@@ -3934,7 +8721,7 @@
       <c r="N7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="19" t="s">
         <v>118</v>
       </c>
       <c r="P7" s="17" t="b">
@@ -4022,16 +8809,16 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="N16" s="21" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="N16" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
@@ -4112,7 +8899,7 @@
       <c r="N20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>118</v>
       </c>
       <c r="P20" s="17" t="b">
@@ -4196,11 +8983,11 @@
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
@@ -4287,16 +9074,16 @@
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="N40" s="21" t="s">
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="N40" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" s="2" t="s">
@@ -4377,7 +9164,7 @@
       <c r="N44" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O44" s="20" t="s">
+      <c r="O44" s="19" t="s">
         <v>118</v>
       </c>
       <c r="P44" s="17" t="b">
@@ -4461,16 +9248,16 @@
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="N53" s="21" t="s">
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="N53" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
     </row>
     <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54" s="2" t="s">
@@ -4551,7 +9338,7 @@
       <c r="N57" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O57" s="20" t="s">
+      <c r="O57" s="19" t="s">
         <v>118</v>
       </c>
       <c r="P57" s="17" t="b">
@@ -4655,16 +9442,16 @@
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="J67" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="N67" s="21" t="s">
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="N67" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
     </row>
     <row r="68" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F68" s="2" t="s">
@@ -4745,7 +9532,7 @@
       <c r="N71" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O71" s="20" t="s">
+      <c r="O71" s="19" t="s">
         <v>118</v>
       </c>
       <c r="P71" s="17" t="b">
@@ -4849,16 +9636,16 @@
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="21" t="s">
+      <c r="J81" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="N81" s="21" t="s">
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="N81" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F82" s="2" t="s">
@@ -4939,7 +9726,7 @@
       <c r="N85" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O85" s="20" t="s">
+      <c r="O85" s="19" t="s">
         <v>118</v>
       </c>
       <c r="P85" s="17" t="b">
@@ -5027,16 +9814,16 @@
       <c r="F94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="21" t="s">
+      <c r="J94" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="N94" s="21" t="s">
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="N94" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F95" s="2" t="s">
@@ -5189,11 +9976,11 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="22" t="s">
+      <c r="J104" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
     </row>
     <row r="105" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F105" s="11" t="s">
@@ -5357,11 +10144,11 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="22" t="s">
+      <c r="J117" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
     </row>
     <row r="118" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F118" s="11" t="s">
@@ -5540,11 +10327,11 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="22" t="s">
+      <c r="J131" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
     </row>
     <row r="132" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F132" s="11" t="s">
@@ -5680,11 +10467,11 @@
       <c r="F144" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J144" s="21" t="s">
+      <c r="J144" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="K144" s="21"/>
-      <c r="L144" s="21"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
     </row>
     <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" s="2" t="s">
@@ -5803,7 +10590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:L16"/>
   <sheetViews>
@@ -5833,11 +10620,11 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="11" t="s">
@@ -5906,7 +10693,7 @@
         <v>97</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="19" t="b">
+      <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="isEmpty" sheetId="6" r:id="rId1"/>
     <sheet name="isNotEmpty" sheetId="7" r:id="rId2"/>
-    <sheet name="contains" sheetId="1" r:id="rId3"/>
-    <sheet name="containsArrays" sheetId="2" r:id="rId4"/>
-    <sheet name="containsAny" sheetId="5" r:id="rId5"/>
+    <sheet name="slice" sheetId="8" r:id="rId3"/>
+    <sheet name="slice2" sheetId="9" r:id="rId4"/>
+    <sheet name="contains" sheetId="1" r:id="rId5"/>
+    <sheet name="containsArrays" sheetId="2" r:id="rId6"/>
+    <sheet name="containsAny" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="393">
   <si>
     <r>
       <t xml:space="preserve">Method boolean </t>
@@ -1930,6 +1932,423 @@
   </si>
   <si>
     <t>Test isNotEmptyString isNotEmptyStringTest</t>
+  </si>
+  <si>
+    <t>Test slicebyte slicebyteTest</t>
+  </si>
+  <si>
+    <t>Test sliceByte sliceByteTest</t>
+  </si>
+  <si>
+    <t>Test sliceByteValue sliceByteValueTest</t>
+  </si>
+  <si>
+    <t>Test sliceshort sliceshortTest</t>
+  </si>
+  <si>
+    <t>Test sliceShort sliceShortTest</t>
+  </si>
+  <si>
+    <t>Test sliceShortValue sliceShortValueTest</t>
+  </si>
+  <si>
+    <t>Test sliceint sliceintTest</t>
+  </si>
+  <si>
+    <t>Test sliceInteger sliceIntegerTest</t>
+  </si>
+  <si>
+    <t>Test sliceIntValue sliceIntValueTest</t>
+  </si>
+  <si>
+    <t>Test slicelong slicelongTest</t>
+  </si>
+  <si>
+    <t>Test sliceLong sliceLongTest</t>
+  </si>
+  <si>
+    <t>Test sliceLongValue sliceLongValueTest</t>
+  </si>
+  <si>
+    <t>Test slicefloat slicefloatTest</t>
+  </si>
+  <si>
+    <t>Test sliceFloat sliceFloatTest</t>
+  </si>
+  <si>
+    <t>Test sliceFloatValue sliceFloatValueTest</t>
+  </si>
+  <si>
+    <t>Test slicedouble slicedoubleTest</t>
+  </si>
+  <si>
+    <t>Test sliceDouble sliceDoubleTest</t>
+  </si>
+  <si>
+    <t>Test sliceDoubleValue sliceDoubleValueTest</t>
+  </si>
+  <si>
+    <t>Test slicechar slicecharTest</t>
+  </si>
+  <si>
+    <t>Test sliceCharacter sliceCharacterTest</t>
+  </si>
+  <si>
+    <t>Test sliceboolean slicebooleanTest</t>
+  </si>
+  <si>
+    <t>Test sliceBoolean sliceBooleanTest</t>
+  </si>
+  <si>
+    <t>Test sliceBigInteger sliceBigIntegerTest</t>
+  </si>
+  <si>
+    <t>Test sliceBigIntegerValue sliceBigIntegerValueTest</t>
+  </si>
+  <si>
+    <t>Test sliceBigDecimal sliceBigDecimalTest</t>
+  </si>
+  <si>
+    <t>Test sliceBigDecimalValue sliceBigDecimalValueTest</t>
+  </si>
+  <si>
+    <t>Test sliceString sliceStringTest</t>
+  </si>
+  <si>
+    <t>3,4,0</t>
+  </si>
+  <si>
+    <t>3,-4,0</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Start index</t>
+  </si>
+  <si>
+    <t>2,,4</t>
+  </si>
+  <si>
+    <t>a,b,c,d,e</t>
+  </si>
+  <si>
+    <t>c,d,e</t>
+  </si>
+  <si>
+    <t>return slice(arr, start);</t>
+  </si>
+  <si>
+    <t>bc,,cdf</t>
+  </si>
+  <si>
+    <t>Method byte[] slicebyte(byte[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Byte[] sliceByte(Byte[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method ByteValue[] sliceByteValue(ByteValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method short[] sliceshort(short[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Short[] sliceShort(Short[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method ShortValue[] sliceShortValue(ShortValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method int[] sliceint(int[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Integer[] sliceInteger(Integer[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method IntValue[] sliceIntValue(IntValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method long[] slicelong(long[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Long[] sliceLong(Long[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method LongValue[] sliceLongValue(LongValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method float[] slicefloat(float[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Float[] sliceFloat(Float[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method FloatValue[] sliceFloatValue(FloatValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method double[] slicedouble(double[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Double[] sliceDouble(Double[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method DoubleValue[] sliceDoubleValue(DoubleValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method char[] slicechar(char[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Character[] sliceCharacter(Character[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method boolean[] sliceboolean(boolean[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] sliceBoolean(Boolean[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method BigInteger[] sliceBigInteger(BigInteger[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue[] sliceBigIntegerValue(BigIntegerValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal[] sliceBigDecimal(BigDecimal[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue[] sliceBigDecimalValue(BigDecimalValue[] arr, int start)</t>
+  </si>
+  <si>
+    <t>Method String[] sliceString(String[] arr, int start)</t>
+  </si>
+  <si>
+    <t>t,t,f,f,t</t>
+  </si>
+  <si>
+    <t>f,f,t</t>
+  </si>
+  <si>
+    <t>f,,t</t>
+  </si>
+  <si>
+    <t>t,t,f,,t</t>
+  </si>
+  <si>
+    <t>ab,bc,,cdf</t>
+  </si>
+  <si>
+    <t>Test slice2byte slice2byteTest</t>
+  </si>
+  <si>
+    <t>Test slice2Byte slice2ByteTest</t>
+  </si>
+  <si>
+    <t>Test slice2ByteValue slice2ByteValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2short slice2shortTest</t>
+  </si>
+  <si>
+    <t>Test slice2Short slice2ShortTest</t>
+  </si>
+  <si>
+    <t>Test slice2ShortValue slice2ShortValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2int slice2intTest</t>
+  </si>
+  <si>
+    <t>Test slice2Integer slice2IntegerTest</t>
+  </si>
+  <si>
+    <t>Test slice2IntValue slice2IntValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2long slice2longTest</t>
+  </si>
+  <si>
+    <t>Test slice2Long slice2LongTest</t>
+  </si>
+  <si>
+    <t>Test slice2LongValue slice2LongValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2float slice2floatTest</t>
+  </si>
+  <si>
+    <t>Test slice2Float slice2FloatTest</t>
+  </si>
+  <si>
+    <t>Test slice2FloatValue slice2FloatValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2double slice2doubleTest</t>
+  </si>
+  <si>
+    <t>Test slice2Double slice2DoubleTest</t>
+  </si>
+  <si>
+    <t>Test slice2DoubleValue slice2DoubleValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2char slice2charTest</t>
+  </si>
+  <si>
+    <t>Test slice2Character slice2CharacterTest</t>
+  </si>
+  <si>
+    <t>Test slice2boolean slice2booleanTest</t>
+  </si>
+  <si>
+    <t>Test slice2Boolean slice2BooleanTest</t>
+  </si>
+  <si>
+    <t>Test slice2BigInteger slice2BigIntegerTest</t>
+  </si>
+  <si>
+    <t>Test slice2BigIntegerValue slice2BigIntegerValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2BigDecimal slice2BigDecimalTest</t>
+  </si>
+  <si>
+    <t>Test slice2BigDecimalValue slice2BigDecimalValueTest</t>
+  </si>
+  <si>
+    <t>Test slice2String slice2StringTest</t>
+  </si>
+  <si>
+    <t>Method byte[] slice2byte(byte[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Byte[] slice2Byte(Byte[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method ByteValue[] slice2ByteValue(ByteValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method short[] slice2short(short[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Short[] slice2Short(Short[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method ShortValue[] slice2ShortValue(ShortValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method int[] slice2int(int[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Integer[] slice2Integer(Integer[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method IntValue[] slice2IntValue(IntValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method long[] slice2long(long[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Long[] slice2Long(Long[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method LongValue[] slice2LongValue(LongValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method float[] slice2float(float[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Float[] slice2Float(Float[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method FloatValue[] slice2FloatValue(FloatValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method double[] slice2double(double[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Double[] slice2Double(Double[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method DoubleValue[] slice2DoubleValue(DoubleValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method char[] slice2char(char[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Character[] slice2Character(Character[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method boolean[] slice2boolean(boolean[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method Boolean[] slice2Boolean(Boolean[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method BigInteger[] slice2BigInteger(BigInteger[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method BigIntegerValue[] slice2BigIntegerValue(BigIntegerValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal[] slice2BigDecimal(BigDecimal[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method BigDecimalValue[] slice2BigDecimalValue(BigDecimalValue[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>Method String[] slice2String(String[] arr, int start, int end)</t>
+  </si>
+  <si>
+    <t>return slice(arr, start, end);</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>3,-4</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>End index</t>
+  </si>
+  <si>
+    <t>1,2,,4,e</t>
+  </si>
+  <si>
+    <t>c,d</t>
+  </si>
+  <si>
+    <t>ab,bc,,cdf,zzz</t>
+  </si>
+  <si>
+    <t>t,f,f</t>
+  </si>
+  <si>
+    <t>t,t,f,f</t>
+  </si>
+  <si>
+    <t>t,t,f</t>
+  </si>
+  <si>
+    <t>f,f</t>
+  </si>
+  <si>
+    <t>t,t,f,,t,f</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2043,6 +2462,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2374,18 +2805,18 @@
       <c r="B3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="38"/>
+      <c r="G3" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="H3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2555,18 +2986,18 @@
       <c r="B16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="38"/>
+      <c r="G16" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="J16" s="26" t="s">
+      <c r="H16" s="38"/>
+      <c r="J16" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -2738,18 +3169,18 @@
       <c r="B29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="G29" s="26" t="s">
+      <c r="E29" s="38"/>
+      <c r="G29" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="J29" s="26" t="s">
+      <c r="H29" s="38"/>
+      <c r="J29" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="26"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -2933,18 +3364,18 @@
       <c r="B42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="G42" s="26" t="s">
+      <c r="E42" s="38"/>
+      <c r="G42" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="J42" s="26" t="s">
+      <c r="H42" s="38"/>
+      <c r="J42" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="K42" s="26"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -3116,18 +3547,18 @@
       <c r="B55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="G55" s="26" t="s">
+      <c r="E55" s="38"/>
+      <c r="G55" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="H55" s="26"/>
-      <c r="J55" s="26" t="s">
+      <c r="H55" s="38"/>
+      <c r="J55" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K55" s="26"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -3293,18 +3724,18 @@
       <c r="B68" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="G68" s="26" t="s">
+      <c r="E68" s="38"/>
+      <c r="G68" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="26"/>
-      <c r="J68" s="26" t="s">
+      <c r="H68" s="38"/>
+      <c r="J68" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K68" s="26"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -3484,14 +3915,14 @@
       <c r="B81" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="G81" s="26" t="s">
+      <c r="E81" s="38"/>
+      <c r="G81" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="H81" s="26"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -3621,14 +4052,14 @@
       <c r="B94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="G94" s="26" t="s">
+      <c r="E94" s="38"/>
+      <c r="G94" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="H94" s="26"/>
+      <c r="H94" s="38"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
@@ -3746,14 +4177,14 @@
       <c r="B105" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="G105" s="26" t="s">
+      <c r="E105" s="38"/>
+      <c r="G105" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="H105" s="26"/>
+      <c r="H105" s="38"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
@@ -3866,14 +4297,14 @@
       <c r="B117" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E117" s="26"/>
-      <c r="G117" s="26" t="s">
+      <c r="E117" s="38"/>
+      <c r="G117" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="H117" s="26"/>
+      <c r="H117" s="38"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -3987,10 +4418,10 @@
         <v>198</v>
       </c>
       <c r="C130" s="12"/>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="27"/>
+      <c r="E130" s="39"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
@@ -4053,24 +4484,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="J68:K68"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="G117:H117"/>
     <mergeCell ref="D130:E130"/>
@@ -4080,6 +4493,24 @@
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4090,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4113,18 +4544,18 @@
       <c r="B3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="38"/>
+      <c r="G3" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="H3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -4294,18 +4725,18 @@
       <c r="B16" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="38"/>
+      <c r="G16" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="J16" s="26" t="s">
+      <c r="H16" s="38"/>
+      <c r="J16" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -4477,18 +4908,18 @@
       <c r="B29" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="G29" s="26" t="s">
+      <c r="E29" s="38"/>
+      <c r="G29" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="J29" s="26" t="s">
+      <c r="H29" s="38"/>
+      <c r="J29" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="K29" s="26"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -4672,18 +5103,18 @@
       <c r="B42" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="G42" s="26" t="s">
+      <c r="E42" s="38"/>
+      <c r="G42" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="J42" s="26" t="s">
+      <c r="H42" s="38"/>
+      <c r="J42" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="K42" s="26"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -4855,18 +5286,18 @@
       <c r="B55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="G55" s="26" t="s">
+      <c r="E55" s="38"/>
+      <c r="G55" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="H55" s="26"/>
-      <c r="J55" s="26" t="s">
+      <c r="H55" s="38"/>
+      <c r="J55" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="26"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -5032,18 +5463,18 @@
       <c r="B68" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="G68" s="26" t="s">
+      <c r="E68" s="38"/>
+      <c r="G68" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="26"/>
-      <c r="J68" s="26" t="s">
+      <c r="H68" s="38"/>
+      <c r="J68" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="K68" s="26"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -5223,14 +5654,14 @@
       <c r="B81" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="G81" s="26" t="s">
+      <c r="E81" s="38"/>
+      <c r="G81" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="H81" s="26"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -5360,14 +5791,14 @@
       <c r="B94" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="G94" s="26" t="s">
+      <c r="E94" s="38"/>
+      <c r="G94" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="H94" s="26"/>
+      <c r="H94" s="38"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
@@ -5485,14 +5916,14 @@
       <c r="B105" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="G105" s="26" t="s">
+      <c r="E105" s="38"/>
+      <c r="G105" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="H105" s="26"/>
+      <c r="H105" s="38"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
@@ -5605,14 +6036,14 @@
       <c r="B117" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="E117" s="26"/>
-      <c r="G117" s="26" t="s">
+      <c r="E117" s="38"/>
+      <c r="G117" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="H117" s="26"/>
+      <c r="H117" s="38"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -5726,10 +6157,10 @@
         <v>252</v>
       </c>
       <c r="C130" s="12"/>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="E130" s="27"/>
+      <c r="E130" s="39"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
@@ -5792,24 +6223,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="J68:K68"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="G117:H117"/>
     <mergeCell ref="D130:E130"/>
@@ -5819,6 +6232,24 @@
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5827,9 +6258,6148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M103" sqref="M103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="72.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="25" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="H3" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="L3" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="26">
+        <v>2</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="H8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="26">
+        <v>5</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="L8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="26">
+        <v>5</v>
+      </c>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="26">
+        <v>-5</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26">
+        <v>2</v>
+      </c>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="27">
+        <v>-3</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="H16" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="L16" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="D18" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="D19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="26">
+        <v>2</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="26">
+        <v>5</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="H21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="26">
+        <v>5</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="L21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="26">
+        <v>5</v>
+      </c>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="D22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="26">
+        <v>-5</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26">
+        <v>2</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26">
+        <v>2</v>
+      </c>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="27">
+        <v>-3</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="H29" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="L29" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="D31" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="D32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="26">
+        <v>2</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="26">
+        <v>2</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="26">
+        <v>2</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="26">
+        <v>0</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="26">
+        <v>5</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="H34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="26">
+        <v>5</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="L34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="26">
+        <v>5</v>
+      </c>
+      <c r="N34" s="30"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="D35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="26">
+        <v>-5</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26">
+        <v>2</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26">
+        <v>2</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26">
+        <v>2</v>
+      </c>
+      <c r="N36" s="26"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="27">
+        <v>-3</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="H42" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="L42" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="26">
+        <v>2</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="26">
+        <v>2</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="26">
+        <v>2</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="26">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="26">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="26">
+        <v>0</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="26">
+        <v>5</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="H47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="26">
+        <v>5</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="L47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="26">
+        <v>5</v>
+      </c>
+      <c r="N47" s="30"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="26">
+        <v>-5</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26">
+        <v>2</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26">
+        <v>2</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26">
+        <v>2</v>
+      </c>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" s="27">
+        <v>-3</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="H55" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="L55" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N57" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="D58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="26">
+        <v>2</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="26">
+        <v>2</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="26">
+        <v>2</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="26">
+        <v>0</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="26">
+        <v>0</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="26">
+        <v>0</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="26">
+        <v>5</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="H60" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="26">
+        <v>5</v>
+      </c>
+      <c r="J60" s="30"/>
+      <c r="L60" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="26">
+        <v>5</v>
+      </c>
+      <c r="N60" s="30"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="D61" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="26">
+        <v>-5</v>
+      </c>
+      <c r="N61" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26">
+        <v>2</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26">
+        <v>2</v>
+      </c>
+      <c r="J62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26">
+        <v>2</v>
+      </c>
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M64" s="27">
+        <v>-3</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="H68" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="L68" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="N69" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="D70" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N70" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="D71" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="26">
+        <v>2</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="26">
+        <v>2</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" s="26">
+        <v>2</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="26">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="26">
+        <v>0</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="26">
+        <v>0</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="26">
+        <v>5</v>
+      </c>
+      <c r="F73" s="30"/>
+      <c r="H73" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="26">
+        <v>5</v>
+      </c>
+      <c r="J73" s="30"/>
+      <c r="L73" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" s="26">
+        <v>5</v>
+      </c>
+      <c r="N73" s="30"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="D74" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" s="26">
+        <v>-5</v>
+      </c>
+      <c r="N74" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26">
+        <v>2</v>
+      </c>
+      <c r="F75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26">
+        <v>2</v>
+      </c>
+      <c r="J75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26">
+        <v>2</v>
+      </c>
+      <c r="N75" s="26"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="H77" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M77" s="27">
+        <v>-3</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="H81" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="D83" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="D84" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="26">
+        <v>2</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="26">
+        <v>2</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="26">
+        <v>0</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="26">
+        <v>0</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="26">
+        <v>5</v>
+      </c>
+      <c r="F86" s="30"/>
+      <c r="H86" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="I86" s="26">
+        <v>5</v>
+      </c>
+      <c r="J86" s="30"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="D87" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="I87" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J87" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26">
+        <v>2</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26">
+        <v>2</v>
+      </c>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="D89" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="H89" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="I89" s="33">
+        <v>-3</v>
+      </c>
+      <c r="J89" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="H90" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J90" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="H94" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D96" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D97" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" s="9">
+        <v>2</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I97" s="9">
+        <v>2</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0</v>
+      </c>
+      <c r="J98" s="35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" s="28">
+        <v>5</v>
+      </c>
+      <c r="F99" s="27"/>
+      <c r="H99" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I99" s="28">
+        <v>5</v>
+      </c>
+      <c r="J99" s="29"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D100" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100" s="28">
+        <v>-5</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="H100" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I100" s="28">
+        <v>-5</v>
+      </c>
+      <c r="J100" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D101" s="26"/>
+      <c r="E101" s="28">
+        <v>2</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28">
+        <v>2</v>
+      </c>
+      <c r="J101" s="29"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D102" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="28">
+        <v>-3</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="H102" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="28">
+        <v>-3</v>
+      </c>
+      <c r="J102" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="H103" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I103" s="28">
+        <v>-3</v>
+      </c>
+      <c r="J103" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="H107" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I108" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J108" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D109" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I109" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J109" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D110" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="26">
+        <v>2</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="26">
+        <v>2</v>
+      </c>
+      <c r="J110" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="26">
+        <v>0</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="26">
+        <v>0</v>
+      </c>
+      <c r="J111" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="26">
+        <v>5</v>
+      </c>
+      <c r="F112" s="30"/>
+      <c r="H112" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="26">
+        <v>5</v>
+      </c>
+      <c r="J112" s="30"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D113" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D114" s="26"/>
+      <c r="E114" s="26">
+        <v>2</v>
+      </c>
+      <c r="F114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26">
+        <v>2</v>
+      </c>
+      <c r="J114" s="26"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D115" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H115" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J115" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D116" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" s="27">
+        <v>-3</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H116" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I116" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J116" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="H120" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J121" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D122" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D123" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="26">
+        <v>2</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H123" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="26">
+        <v>2</v>
+      </c>
+      <c r="J123" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="26">
+        <v>0</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" s="26">
+        <v>0</v>
+      </c>
+      <c r="J124" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="26">
+        <v>5</v>
+      </c>
+      <c r="F125" s="30"/>
+      <c r="H125" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" s="26">
+        <v>5</v>
+      </c>
+      <c r="J125" s="30"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D126" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="26">
+        <v>-5</v>
+      </c>
+      <c r="J126" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D127" s="26"/>
+      <c r="E127" s="26">
+        <v>2</v>
+      </c>
+      <c r="F127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26">
+        <v>2</v>
+      </c>
+      <c r="J127" s="26"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D128" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" s="26">
+        <v>-3</v>
+      </c>
+      <c r="J128" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D129" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" s="27">
+        <v>-3</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H129" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="27">
+        <v>-3</v>
+      </c>
+      <c r="J129" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="26">
+        <v>2</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="26">
+        <v>0</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="26">
+        <v>5</v>
+      </c>
+      <c r="F138" s="30"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C139" s="12"/>
+      <c r="D139" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="26">
+        <v>-5</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C140" s="12"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26">
+        <v>2</v>
+      </c>
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D141" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="26">
+        <v>-3</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D142" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="E142" s="27">
+        <v>-3</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:N16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="72.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="25" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="N3" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D5" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36">
+        <v>4</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="36">
+        <v>1</v>
+      </c>
+      <c r="K6" s="36">
+        <v>4</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="36">
+        <v>1</v>
+      </c>
+      <c r="P6" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>4</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>4</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="36">
+        <v>0</v>
+      </c>
+      <c r="P7" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="36">
+        <v>5</v>
+      </c>
+      <c r="F8" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="I8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="36">
+        <v>5</v>
+      </c>
+      <c r="K8" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="N8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="36">
+        <v>5</v>
+      </c>
+      <c r="P8" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F9" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K9" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="36">
+        <v>-5</v>
+      </c>
+      <c r="P9" s="36">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="36">
+        <v>7</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36">
+        <v>2</v>
+      </c>
+      <c r="K10" s="36">
+        <v>7</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36">
+        <v>2</v>
+      </c>
+      <c r="P10" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="36"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F11" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K11" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="36">
+        <v>-3</v>
+      </c>
+      <c r="P11" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K12" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="37">
+        <v>-4</v>
+      </c>
+      <c r="P12" s="37">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="I16" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="D18" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="D19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36">
+        <v>4</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="36">
+        <v>1</v>
+      </c>
+      <c r="K19" s="36">
+        <v>4</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="36">
+        <v>1</v>
+      </c>
+      <c r="P19" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+      <c r="F20" s="36">
+        <v>4</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="36">
+        <v>0</v>
+      </c>
+      <c r="K20" s="36">
+        <v>4</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="36">
+        <v>0</v>
+      </c>
+      <c r="P20" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="36">
+        <v>5</v>
+      </c>
+      <c r="F21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="I21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="36">
+        <v>5</v>
+      </c>
+      <c r="K21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="N21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="36">
+        <v>5</v>
+      </c>
+      <c r="P21" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="D22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F22" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K22" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="36">
+        <v>-5</v>
+      </c>
+      <c r="P22" s="36">
+        <v>-2</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36">
+        <v>2</v>
+      </c>
+      <c r="F23" s="36">
+        <v>7</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36">
+        <v>2</v>
+      </c>
+      <c r="K23" s="36">
+        <v>7</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36">
+        <v>2</v>
+      </c>
+      <c r="P23" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F24" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K24" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="36">
+        <v>-3</v>
+      </c>
+      <c r="P24" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K25" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="37">
+        <v>-4</v>
+      </c>
+      <c r="P25" s="37">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="I29" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="N29" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="D31" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="D32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="36">
+        <v>4</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="36">
+        <v>1</v>
+      </c>
+      <c r="K32" s="36">
+        <v>4</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="36">
+        <v>1</v>
+      </c>
+      <c r="P32" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0</v>
+      </c>
+      <c r="F33" s="36">
+        <v>4</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0</v>
+      </c>
+      <c r="K33" s="36">
+        <v>4</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="36">
+        <v>0</v>
+      </c>
+      <c r="P33" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="36">
+        <v>5</v>
+      </c>
+      <c r="F34" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="I34" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="36">
+        <v>5</v>
+      </c>
+      <c r="K34" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="30"/>
+      <c r="N34" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="36">
+        <v>5</v>
+      </c>
+      <c r="P34" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="30"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="D35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F35" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K35" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="36">
+        <v>-5</v>
+      </c>
+      <c r="P35" s="36">
+        <v>-2</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="36">
+        <v>7</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36">
+        <v>2</v>
+      </c>
+      <c r="K36" s="36">
+        <v>7</v>
+      </c>
+      <c r="L36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36">
+        <v>2</v>
+      </c>
+      <c r="P36" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="36"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F37" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K37" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="36">
+        <v>-3</v>
+      </c>
+      <c r="P37" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="I38" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K38" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="37">
+        <v>-4</v>
+      </c>
+      <c r="P38" s="37">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="I42" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="N42" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="36">
+        <v>1</v>
+      </c>
+      <c r="F45" s="36">
+        <v>4</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="36">
+        <v>1</v>
+      </c>
+      <c r="K45" s="36">
+        <v>4</v>
+      </c>
+      <c r="L45" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="36">
+        <v>1</v>
+      </c>
+      <c r="P45" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36">
+        <v>4</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="36">
+        <v>0</v>
+      </c>
+      <c r="K46" s="36">
+        <v>4</v>
+      </c>
+      <c r="L46" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="36">
+        <v>0</v>
+      </c>
+      <c r="P46" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="36">
+        <v>5</v>
+      </c>
+      <c r="F47" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="I47" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="36">
+        <v>5</v>
+      </c>
+      <c r="K47" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L47" s="30"/>
+      <c r="N47" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" s="36">
+        <v>5</v>
+      </c>
+      <c r="P47" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="30"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F48" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K48" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="36">
+        <v>-5</v>
+      </c>
+      <c r="P48" s="36">
+        <v>-2</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36">
+        <v>2</v>
+      </c>
+      <c r="F49" s="36">
+        <v>7</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36">
+        <v>2</v>
+      </c>
+      <c r="K49" s="36">
+        <v>7</v>
+      </c>
+      <c r="L49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36">
+        <v>2</v>
+      </c>
+      <c r="P49" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F50" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K50" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L50" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="36">
+        <v>-3</v>
+      </c>
+      <c r="P50" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K51" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L51" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N51" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="37">
+        <v>-4</v>
+      </c>
+      <c r="P51" s="37">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="I55" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="N55" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="D58" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="36">
+        <v>1</v>
+      </c>
+      <c r="F58" s="36">
+        <v>4</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="36">
+        <v>1</v>
+      </c>
+      <c r="K58" s="36">
+        <v>4</v>
+      </c>
+      <c r="L58" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="36">
+        <v>1</v>
+      </c>
+      <c r="P58" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="36">
+        <v>0</v>
+      </c>
+      <c r="F59" s="36">
+        <v>4</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="36">
+        <v>0</v>
+      </c>
+      <c r="K59" s="36">
+        <v>4</v>
+      </c>
+      <c r="L59" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="36">
+        <v>0</v>
+      </c>
+      <c r="P59" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="36">
+        <v>5</v>
+      </c>
+      <c r="F60" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="30"/>
+      <c r="I60" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="36">
+        <v>5</v>
+      </c>
+      <c r="K60" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L60" s="30"/>
+      <c r="N60" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="36">
+        <v>5</v>
+      </c>
+      <c r="P60" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q60" s="30"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="D61" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F61" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K61" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="36">
+        <v>-5</v>
+      </c>
+      <c r="P61" s="36">
+        <v>-2</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36">
+        <v>2</v>
+      </c>
+      <c r="F62" s="36">
+        <v>7</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36">
+        <v>2</v>
+      </c>
+      <c r="K62" s="36">
+        <v>7</v>
+      </c>
+      <c r="L62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36">
+        <v>2</v>
+      </c>
+      <c r="P62" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="36"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F63" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K63" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L63" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" s="36">
+        <v>-3</v>
+      </c>
+      <c r="P63" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I64" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K64" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L64" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N64" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O64" s="37">
+        <v>-4</v>
+      </c>
+      <c r="P64" s="37">
+        <v>-1</v>
+      </c>
+      <c r="Q64" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="I68" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="N68" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="P69" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="D70" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G70" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J70" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="P70" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="D71" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="36">
+        <v>1</v>
+      </c>
+      <c r="F71" s="36">
+        <v>4</v>
+      </c>
+      <c r="G71" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="36">
+        <v>1</v>
+      </c>
+      <c r="K71" s="36">
+        <v>4</v>
+      </c>
+      <c r="L71" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O71" s="36">
+        <v>1</v>
+      </c>
+      <c r="P71" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="36">
+        <v>0</v>
+      </c>
+      <c r="F72" s="36">
+        <v>4</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="36">
+        <v>0</v>
+      </c>
+      <c r="K72" s="36">
+        <v>4</v>
+      </c>
+      <c r="L72" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="36">
+        <v>0</v>
+      </c>
+      <c r="P72" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="36">
+        <v>5</v>
+      </c>
+      <c r="F73" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="I73" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="36">
+        <v>5</v>
+      </c>
+      <c r="K73" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L73" s="30"/>
+      <c r="N73" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" s="36">
+        <v>5</v>
+      </c>
+      <c r="P73" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="30"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="D74" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F74" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K74" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="36">
+        <v>-5</v>
+      </c>
+      <c r="P74" s="36">
+        <v>-2</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36">
+        <v>2</v>
+      </c>
+      <c r="F75" s="36">
+        <v>7</v>
+      </c>
+      <c r="G75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36">
+        <v>2</v>
+      </c>
+      <c r="K75" s="36">
+        <v>7</v>
+      </c>
+      <c r="L75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36">
+        <v>2</v>
+      </c>
+      <c r="P75" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q75" s="36"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F76" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K76" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L76" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="36">
+        <v>-3</v>
+      </c>
+      <c r="P76" s="36">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="I77" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K77" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L77" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N77" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O77" s="37">
+        <v>-4</v>
+      </c>
+      <c r="P77" s="37">
+        <v>-1</v>
+      </c>
+      <c r="Q77" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="I81" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J82" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K82" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L82" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="D83" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="D84" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="36">
+        <v>1</v>
+      </c>
+      <c r="F84" s="36">
+        <v>4</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="36">
+        <v>1</v>
+      </c>
+      <c r="K84" s="36">
+        <v>4</v>
+      </c>
+      <c r="L84" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="36">
+        <v>0</v>
+      </c>
+      <c r="F85" s="36">
+        <v>4</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I85" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="36">
+        <v>0</v>
+      </c>
+      <c r="K85" s="36">
+        <v>4</v>
+      </c>
+      <c r="L85" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="36">
+        <v>5</v>
+      </c>
+      <c r="F86" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="I86" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J86" s="36">
+        <v>5</v>
+      </c>
+      <c r="K86" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="D87" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F87" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J87" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K87" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L87" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36">
+        <v>2</v>
+      </c>
+      <c r="F88" s="36">
+        <v>7</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36">
+        <v>2</v>
+      </c>
+      <c r="K88" s="36">
+        <v>7</v>
+      </c>
+      <c r="L88" s="36"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="D89" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F89" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G89" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J89" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K89" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L89" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="I90" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="J90" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K90" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L90" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="I94" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K95" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L95" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D96" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J96" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K96" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L96" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D97" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" s="36">
+        <v>1</v>
+      </c>
+      <c r="F97" s="36">
+        <v>4</v>
+      </c>
+      <c r="G97" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="I97" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J97" s="36">
+        <v>1</v>
+      </c>
+      <c r="K97" s="36">
+        <v>4</v>
+      </c>
+      <c r="L97" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" s="36">
+        <v>0</v>
+      </c>
+      <c r="F98" s="36">
+        <v>4</v>
+      </c>
+      <c r="G98" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="I98" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J98" s="36">
+        <v>0</v>
+      </c>
+      <c r="K98" s="36">
+        <v>4</v>
+      </c>
+      <c r="L98" s="37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" s="36">
+        <v>5</v>
+      </c>
+      <c r="F99" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G99" s="37"/>
+      <c r="I99" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J99" s="36">
+        <v>5</v>
+      </c>
+      <c r="K99" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L99" s="37"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D100" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F100" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G100" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="I100" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J100" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K100" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L100" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D101" s="36"/>
+      <c r="E101" s="36">
+        <v>2</v>
+      </c>
+      <c r="F101" s="36">
+        <v>7</v>
+      </c>
+      <c r="G101" s="37"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36">
+        <v>2</v>
+      </c>
+      <c r="K101" s="36">
+        <v>7</v>
+      </c>
+      <c r="L101" s="37"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D102" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F102" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J102" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K102" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L102" s="36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="I103" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J103" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K103" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L103" s="36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="I107" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G108" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J108" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K108" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L108" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D109" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J109" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K109" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L109" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D110" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="36">
+        <v>1</v>
+      </c>
+      <c r="F110" s="36">
+        <v>4</v>
+      </c>
+      <c r="G110" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I110" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="36">
+        <v>1</v>
+      </c>
+      <c r="K110" s="36">
+        <v>4</v>
+      </c>
+      <c r="L110" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="36">
+        <v>0</v>
+      </c>
+      <c r="F111" s="36">
+        <v>4</v>
+      </c>
+      <c r="G111" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I111" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="36">
+        <v>0</v>
+      </c>
+      <c r="K111" s="36">
+        <v>4</v>
+      </c>
+      <c r="L111" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="36">
+        <v>5</v>
+      </c>
+      <c r="F112" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G112" s="30"/>
+      <c r="I112" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="36">
+        <v>5</v>
+      </c>
+      <c r="K112" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L112" s="30"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D113" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F113" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I113" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K113" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L113" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D114" s="36"/>
+      <c r="E114" s="36">
+        <v>2</v>
+      </c>
+      <c r="F114" s="36">
+        <v>7</v>
+      </c>
+      <c r="G114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36">
+        <v>2</v>
+      </c>
+      <c r="K114" s="36">
+        <v>7</v>
+      </c>
+      <c r="L114" s="36"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D115" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F115" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G115" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I115" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K115" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L115" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D116" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E116" s="37">
+        <v>-4</v>
+      </c>
+      <c r="F116" s="37">
+        <v>-1</v>
+      </c>
+      <c r="G116" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I116" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J116" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K116" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L116" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="I120" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F121" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J121" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K121" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="L121" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D122" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F122" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J122" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K122" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L122" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D123" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="36">
+        <v>1</v>
+      </c>
+      <c r="F123" s="36">
+        <v>4</v>
+      </c>
+      <c r="G123" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="I123" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J123" s="36">
+        <v>1</v>
+      </c>
+      <c r="K123" s="36">
+        <v>4</v>
+      </c>
+      <c r="L123" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="36">
+        <v>0</v>
+      </c>
+      <c r="F124" s="36">
+        <v>4</v>
+      </c>
+      <c r="G124" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I124" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" s="36">
+        <v>0</v>
+      </c>
+      <c r="K124" s="36">
+        <v>4</v>
+      </c>
+      <c r="L124" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="36">
+        <v>5</v>
+      </c>
+      <c r="F125" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G125" s="30"/>
+      <c r="I125" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" s="36">
+        <v>5</v>
+      </c>
+      <c r="K125" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L125" s="30"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D126" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F126" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G126" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I126" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K126" s="36">
+        <v>-2</v>
+      </c>
+      <c r="L126" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D127" s="36"/>
+      <c r="E127" s="36">
+        <v>2</v>
+      </c>
+      <c r="F127" s="36">
+        <v>7</v>
+      </c>
+      <c r="G127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36">
+        <v>2</v>
+      </c>
+      <c r="K127" s="36">
+        <v>7</v>
+      </c>
+      <c r="L127" s="36"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D128" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F128" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G128" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="I128" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K128" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L128" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D129" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" s="37">
+        <v>-4</v>
+      </c>
+      <c r="F129" s="37">
+        <v>-1</v>
+      </c>
+      <c r="G129" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="I129" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J129" s="37">
+        <v>-4</v>
+      </c>
+      <c r="K129" s="37">
+        <v>-1</v>
+      </c>
+      <c r="L129" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G134" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G135" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="36">
+        <v>1</v>
+      </c>
+      <c r="F136" s="36">
+        <v>4</v>
+      </c>
+      <c r="G136" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="36">
+        <v>0</v>
+      </c>
+      <c r="F137" s="36">
+        <v>4</v>
+      </c>
+      <c r="G137" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="36">
+        <v>5</v>
+      </c>
+      <c r="F138" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G138" s="30"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C139" s="12"/>
+      <c r="D139" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="36">
+        <v>-5</v>
+      </c>
+      <c r="F139" s="36">
+        <v>-2</v>
+      </c>
+      <c r="G139" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C140" s="12"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36">
+        <v>2</v>
+      </c>
+      <c r="F140" s="36">
+        <v>7</v>
+      </c>
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D141" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="36">
+        <v>-3</v>
+      </c>
+      <c r="F141" s="36">
+        <v>-1</v>
+      </c>
+      <c r="G141" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D142" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="E142" s="37">
+        <v>-4</v>
+      </c>
+      <c r="F142" s="37">
+        <v>-1</v>
+      </c>
+      <c r="G142" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="N16:Q16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N141"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
@@ -5851,21 +12421,21 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -6134,21 +12704,21 @@
         <v>1</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="H16" s="26" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="H16" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="L16" s="26" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="L16" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -6409,21 +12979,21 @@
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="H29" s="26" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="H29" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="L29" s="26" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="L29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -6710,21 +13280,21 @@
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="H42" s="26" t="s">
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="H42" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="L42" s="26" t="s">
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="L42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -6984,21 +13554,21 @@
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="H55" s="26" t="s">
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="H55" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="L55" s="26" t="s">
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="L55" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -7294,21 +13864,21 @@
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="H69" s="26" t="s">
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="H69" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="L69" s="26" t="s">
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="L69" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
@@ -7614,16 +14184,16 @@
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="H83" s="26" t="s">
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="H83" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
@@ -7835,16 +14405,16 @@
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="H96" s="26" t="s">
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="H96" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
@@ -8015,16 +14585,16 @@
         <v>31</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="H107" s="26" t="s">
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="H107" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
@@ -8226,16 +14796,16 @@
         <v>32</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="H119" s="26" t="s">
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="H119" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
@@ -8449,11 +15019,11 @@
         <v>41</v>
       </c>
       <c r="C132" s="12"/>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
@@ -8571,17 +15141,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D107:F107"/>
     <mergeCell ref="L69:N69"/>
     <mergeCell ref="H107:J107"/>
     <mergeCell ref="H119:J119"/>
@@ -8598,13 +15157,24 @@
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D119:F119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:P152"/>
   <sheetViews>
@@ -8631,16 +15201,16 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
@@ -8809,16 +15379,16 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="N16" s="26" t="s">
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="N16" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
@@ -8983,11 +15553,11 @@
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
@@ -9074,16 +15644,16 @@
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="N40" s="26" t="s">
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="N40" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" s="2" t="s">
@@ -9248,16 +15818,16 @@
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="N53" s="26" t="s">
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="N53" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54" s="2" t="s">
@@ -9442,16 +16012,16 @@
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="N67" s="26" t="s">
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="N67" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F68" s="2" t="s">
@@ -9636,16 +16206,16 @@
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="26" t="s">
+      <c r="J81" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="N81" s="26" t="s">
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="N81" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F82" s="2" t="s">
@@ -9814,16 +16384,16 @@
       <c r="F94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="26" t="s">
+      <c r="J94" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="N94" s="26" t="s">
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="N94" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F95" s="2" t="s">
@@ -9976,11 +16546,11 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="27" t="s">
+      <c r="J104" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39"/>
     </row>
     <row r="105" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F105" s="11" t="s">
@@ -10144,11 +16714,11 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="27" t="s">
+      <c r="J117" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
     </row>
     <row r="118" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F118" s="11" t="s">
@@ -10327,11 +16897,11 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="27" t="s">
+      <c r="J131" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
     </row>
     <row r="132" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F132" s="11" t="s">
@@ -10467,11 +17037,11 @@
       <c r="F144" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J144" s="26" t="s">
+      <c r="J144" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="K144" s="26"/>
-      <c r="L144" s="26"/>
+      <c r="K144" s="38"/>
+      <c r="L144" s="38"/>
     </row>
     <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" s="2" t="s">
@@ -10566,18 +17136,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="J144:L144"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="J131:L131"/>
     <mergeCell ref="N81:P81"/>
     <mergeCell ref="N94:P94"/>
     <mergeCell ref="N3:P3"/>
@@ -10585,12 +17143,24 @@
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="N53:P53"/>
     <mergeCell ref="N67:P67"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J53:L53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:L16"/>
   <sheetViews>
@@ -10620,11 +17190,11 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="11" t="s">

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="10995" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="isEmpty" sheetId="6" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="contains" sheetId="1" r:id="rId5"/>
     <sheet name="containsArrays" sheetId="2" r:id="rId6"/>
     <sheet name="containsAny" sheetId="5" r:id="rId7"/>
+    <sheet name="length" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="453">
   <si>
     <r>
       <t xml:space="preserve">Method boolean </t>
@@ -2349,6 +2350,186 @@
   </si>
   <si>
     <t>t,t,f,,t,f</t>
+  </si>
+  <si>
+    <t>return length(mydata);</t>
+  </si>
+  <si>
+    <t>Method int lengthbyte(byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthByte(Byte[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthByteValue(ByteValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthshort(short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthShort(Short[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthShortValue(ShortValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthint(int[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthInteger(Integer[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthIntValue(IntValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthlong(long[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthLong(Long[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthLongValue(LongValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthfloat(float[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthFloat(Float[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthFloatValue(FloatValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthdouble(double[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthDouble(Double[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthDoubleValue(DoubleValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthchar(char[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthCharacter(Character[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthboolean(boolean[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthBoolean(Boolean[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthBigInteger(BigInteger[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthBigIntegerValue(BigIntegerValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthBigDecimal(BigDecimal[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthBigDecimalValue(BigDecimalValue[] mydata)</t>
+  </si>
+  <si>
+    <t>Method int lengthString(String[] mydata)</t>
+  </si>
+  <si>
+    <t>Test lengthbyte</t>
+  </si>
+  <si>
+    <t>Test lengthByte</t>
+  </si>
+  <si>
+    <t>Test lengthByteValue</t>
+  </si>
+  <si>
+    <t>Test lengthshort</t>
+  </si>
+  <si>
+    <t>Test lengthShort</t>
+  </si>
+  <si>
+    <t>Test lengthShortValue</t>
+  </si>
+  <si>
+    <t>Test lengthint</t>
+  </si>
+  <si>
+    <t>Test lengthInteger</t>
+  </si>
+  <si>
+    <t>Test lengthIntValue</t>
+  </si>
+  <si>
+    <t>Test lengthlong</t>
+  </si>
+  <si>
+    <t>Test lengthLong</t>
+  </si>
+  <si>
+    <t>Test lengthLongValue</t>
+  </si>
+  <si>
+    <t>Test lengthfloat</t>
+  </si>
+  <si>
+    <t>Test lengthFloat</t>
+  </si>
+  <si>
+    <t>Test lengthFloatValue</t>
+  </si>
+  <si>
+    <t>Test lengthdouble</t>
+  </si>
+  <si>
+    <t>Test lengthDouble</t>
+  </si>
+  <si>
+    <t>Test lengthDoubleValue</t>
+  </si>
+  <si>
+    <t>Test lengthchar</t>
+  </si>
+  <si>
+    <t>Test lengthCharacter</t>
+  </si>
+  <si>
+    <t>Test lengthboolean</t>
+  </si>
+  <si>
+    <t>Test lengthBoolean</t>
+  </si>
+  <si>
+    <t>Test lengthBigInteger</t>
+  </si>
+  <si>
+    <t>Test lengthBigIntegerValue</t>
+  </si>
+  <si>
+    <t>Test lengthBigDecimal</t>
+  </si>
+  <si>
+    <t>Test lengthBigDecimalValue</t>
+  </si>
+  <si>
+    <t>Test lengthString</t>
+  </si>
+  <si>
+    <t>a,,,d</t>
+  </si>
+  <si>
+    <t>1,2,,,6</t>
+  </si>
+  <si>
+    <t>n,n,,,n</t>
+  </si>
+  <si>
+    <t>t,y,,,y</t>
+  </si>
+  <si>
+    <t>1,2,,,0</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2474,6 +2655,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2782,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
@@ -2805,18 +2988,18 @@
       <c r="B3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2986,18 +3169,18 @@
       <c r="B16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="G16" s="38" t="s">
+      <c r="E16" s="40"/>
+      <c r="G16" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="40"/>
+      <c r="J16" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -3169,18 +3352,18 @@
       <c r="B29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="G29" s="38" t="s">
+      <c r="E29" s="40"/>
+      <c r="G29" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="J29" s="38" t="s">
+      <c r="H29" s="40"/>
+      <c r="J29" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="38"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -3364,18 +3547,18 @@
       <c r="B42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="G42" s="38" t="s">
+      <c r="E42" s="40"/>
+      <c r="G42" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="J42" s="38" t="s">
+      <c r="H42" s="40"/>
+      <c r="J42" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="K42" s="38"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -3547,18 +3730,18 @@
       <c r="B55" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="G55" s="38" t="s">
+      <c r="E55" s="40"/>
+      <c r="G55" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="J55" s="38" t="s">
+      <c r="H55" s="40"/>
+      <c r="J55" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="K55" s="38"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -3724,18 +3907,18 @@
       <c r="B68" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="G68" s="38" t="s">
+      <c r="E68" s="40"/>
+      <c r="G68" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="J68" s="38" t="s">
+      <c r="H68" s="40"/>
+      <c r="J68" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="K68" s="38"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -3915,14 +4098,14 @@
       <c r="B81" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="38"/>
-      <c r="G81" s="38" t="s">
+      <c r="E81" s="40"/>
+      <c r="G81" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="H81" s="38"/>
+      <c r="H81" s="40"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -4052,14 +4235,14 @@
       <c r="B94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="G94" s="38" t="s">
+      <c r="E94" s="40"/>
+      <c r="G94" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="H94" s="38"/>
+      <c r="H94" s="40"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
@@ -4177,14 +4360,14 @@
       <c r="B105" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="38"/>
-      <c r="G105" s="38" t="s">
+      <c r="E105" s="40"/>
+      <c r="G105" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="H105" s="38"/>
+      <c r="H105" s="40"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
@@ -4297,14 +4480,14 @@
       <c r="B117" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="38" t="s">
+      <c r="D117" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="E117" s="38"/>
-      <c r="G117" s="38" t="s">
+      <c r="E117" s="40"/>
+      <c r="G117" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="H117" s="38"/>
+      <c r="H117" s="40"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -4418,10 +4601,10 @@
         <v>198</v>
       </c>
       <c r="C130" s="12"/>
-      <c r="D130" s="39" t="s">
+      <c r="D130" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="39"/>
+      <c r="E130" s="41"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
@@ -4521,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4544,18 +4727,18 @@
       <c r="B3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -4725,18 +4908,18 @@
       <c r="B16" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="G16" s="38" t="s">
+      <c r="E16" s="40"/>
+      <c r="G16" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="40"/>
+      <c r="J16" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -4908,18 +5091,18 @@
       <c r="B29" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="G29" s="38" t="s">
+      <c r="E29" s="40"/>
+      <c r="G29" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="J29" s="38" t="s">
+      <c r="H29" s="40"/>
+      <c r="J29" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="K29" s="38"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -5103,18 +5286,18 @@
       <c r="B42" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="G42" s="38" t="s">
+      <c r="E42" s="40"/>
+      <c r="G42" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="J42" s="38" t="s">
+      <c r="H42" s="40"/>
+      <c r="J42" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="K42" s="38"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -5286,18 +5469,18 @@
       <c r="B55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="G55" s="38" t="s">
+      <c r="E55" s="40"/>
+      <c r="G55" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="J55" s="38" t="s">
+      <c r="H55" s="40"/>
+      <c r="J55" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="38"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -5463,18 +5646,18 @@
       <c r="B68" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="G68" s="38" t="s">
+      <c r="E68" s="40"/>
+      <c r="G68" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="J68" s="38" t="s">
+      <c r="H68" s="40"/>
+      <c r="J68" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="K68" s="38"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -5654,14 +5837,14 @@
       <c r="B81" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="E81" s="38"/>
-      <c r="G81" s="38" t="s">
+      <c r="E81" s="40"/>
+      <c r="G81" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="H81" s="38"/>
+      <c r="H81" s="40"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -5791,14 +5974,14 @@
       <c r="B94" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="G94" s="38" t="s">
+      <c r="E94" s="40"/>
+      <c r="G94" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="H94" s="38"/>
+      <c r="H94" s="40"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
@@ -5916,14 +6099,14 @@
       <c r="B105" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E105" s="38"/>
-      <c r="G105" s="38" t="s">
+      <c r="E105" s="40"/>
+      <c r="G105" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="H105" s="38"/>
+      <c r="H105" s="40"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
@@ -6036,14 +6219,14 @@
       <c r="B117" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="38" t="s">
+      <c r="D117" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="E117" s="38"/>
-      <c r="G117" s="38" t="s">
+      <c r="E117" s="40"/>
+      <c r="G117" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="H117" s="38"/>
+      <c r="H117" s="40"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -6157,10 +6340,10 @@
         <v>252</v>
       </c>
       <c r="C130" s="12"/>
-      <c r="D130" s="39" t="s">
+      <c r="D130" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="E130" s="39"/>
+      <c r="E130" s="41"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
@@ -6285,21 +6468,21 @@
       <c r="B3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -6568,21 +6751,21 @@
       <c r="B16" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="H16" s="38" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="H16" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="L16" s="38" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="L16" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -6850,21 +7033,21 @@
       <c r="B29" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="H29" s="38" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="H29" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="L29" s="38" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="L29" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -7153,21 +7336,21 @@
       <c r="B42" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="H42" s="38" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="H42" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="L42" s="38" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="L42" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -7435,21 +7618,21 @@
       <c r="B55" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="H55" s="38" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="H55" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="L55" s="38" t="s">
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="L55" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -7711,21 +7894,21 @@
       <c r="B68" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="H68" s="38" t="s">
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="H68" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="L68" s="38" t="s">
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="L68" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -8006,16 +8189,16 @@
       <c r="B81" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="H81" s="38" t="s">
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="H81" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -8207,16 +8390,16 @@
       <c r="B94" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="H94" s="38" t="s">
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="H94" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
@@ -8404,16 +8587,16 @@
       <c r="B107" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="H107" s="38" t="s">
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="H107" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
@@ -8604,16 +8787,16 @@
       <c r="B120" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="H120" s="38" t="s">
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="H120" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
@@ -8802,11 +8985,11 @@
         <v>318</v>
       </c>
       <c r="C133" s="12"/>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
@@ -8954,7 +9137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+    <sheetView topLeftCell="B73" workbookViewId="0">
       <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
@@ -8981,24 +9164,24 @@
       <c r="B3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="I3" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -9346,24 +9529,24 @@
       <c r="B16" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="I16" s="38" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="I16" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="N16" s="38" t="s">
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="N16" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -9709,24 +9892,24 @@
       <c r="B29" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="I29" s="38" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="I29" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="N29" s="38" t="s">
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="N29" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -10100,24 +10283,24 @@
       <c r="B42" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="I42" s="38" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="I42" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="N42" s="38" t="s">
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="N42" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -10463,24 +10646,24 @@
       <c r="B55" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="I55" s="38" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="I55" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="N55" s="38" t="s">
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="N55" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -10820,24 +11003,24 @@
       <c r="B68" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="I68" s="38" t="s">
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="I68" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="N68" s="38" t="s">
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="N68" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
@@ -11200,18 +11383,18 @@
       <c r="B81" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="I81" s="38" t="s">
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="I81" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -11454,18 +11637,18 @@
       <c r="B94" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="I94" s="38" t="s">
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="I94" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
@@ -11706,18 +11889,18 @@
       <c r="B107" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="I107" s="38" t="s">
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="I107" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
@@ -11964,18 +12147,18 @@
       <c r="B120" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="I120" s="38" t="s">
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="I120" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
@@ -12219,12 +12402,12 @@
         <v>377</v>
       </c>
       <c r="C133" s="12"/>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
@@ -12421,21 +12604,21 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -12704,21 +12887,21 @@
         <v>1</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="H16" s="38" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="H16" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="L16" s="38" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="L16" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -12979,21 +13162,21 @@
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="H29" s="38" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="H29" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="L29" s="38" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="L29" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
@@ -13280,21 +13463,21 @@
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="H42" s="38" t="s">
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="H42" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="L42" s="38" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="L42" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -13554,21 +13737,21 @@
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="H55" s="38" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="H55" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="L55" s="38" t="s">
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="L55" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -13864,21 +14047,21 @@
       <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="H69" s="38" t="s">
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="H69" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="L69" s="38" t="s">
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="L69" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
@@ -14184,16 +14367,16 @@
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="H83" s="38" t="s">
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="H83" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
@@ -14405,16 +14588,16 @@
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="H96" s="38" t="s">
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="H96" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
@@ -14585,16 +14768,16 @@
         <v>31</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="H107" s="38" t="s">
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="H107" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
@@ -14796,16 +14979,16 @@
         <v>32</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="38" t="s">
+      <c r="D119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="H119" s="38" t="s">
+      <c r="E119" s="40"/>
+      <c r="F119" s="40"/>
+      <c r="H119" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
@@ -15019,11 +15202,11 @@
         <v>41</v>
       </c>
       <c r="C132" s="12"/>
-      <c r="D132" s="39" t="s">
+      <c r="D132" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
@@ -15178,7 +15361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:P152"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
@@ -15201,16 +15384,16 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
@@ -15379,16 +15562,16 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="N16" s="38" t="s">
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="N16" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
@@ -15553,11 +15736,11 @@
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
@@ -15644,16 +15827,16 @@
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="N40" s="38" t="s">
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="N40" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" s="2" t="s">
@@ -15818,16 +16001,16 @@
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="38" t="s">
+      <c r="J53" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="N53" s="38" t="s">
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="N53" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54" s="2" t="s">
@@ -16012,16 +16195,16 @@
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="38" t="s">
+      <c r="J67" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="N67" s="38" t="s">
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="N67" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
     </row>
     <row r="68" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F68" s="2" t="s">
@@ -16206,16 +16389,16 @@
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="38" t="s">
+      <c r="J81" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="N81" s="38" t="s">
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="N81" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F82" s="2" t="s">
@@ -16384,16 +16567,16 @@
       <c r="F94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J94" s="38" t="s">
+      <c r="J94" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="N94" s="38" t="s">
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="N94" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F95" s="2" t="s">
@@ -16546,11 +16729,11 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="39" t="s">
+      <c r="J104" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
     </row>
     <row r="105" spans="6:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F105" s="11" t="s">
@@ -16714,11 +16897,11 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="39" t="s">
+      <c r="J117" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="41"/>
     </row>
     <row r="118" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F118" s="11" t="s">
@@ -16897,11 +17080,11 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="39" t="s">
+      <c r="J131" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
     </row>
     <row r="132" spans="6:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F132" s="11" t="s">
@@ -17037,11 +17220,11 @@
       <c r="F144" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J144" s="38" t="s">
+      <c r="J144" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="K144" s="38"/>
-      <c r="L144" s="38"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
     </row>
     <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" s="2" t="s">
@@ -17190,11 +17373,11 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" s="11" t="s">
@@ -17312,4 +17495,1741 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="74.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="8" width="12.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="11" width="12.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="G3" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="J3" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="39">
+        <v>5</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="39">
+        <v>5</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>1</v>
+      </c>
+      <c r="K8" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="D9" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="39">
+        <v>5</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="G16" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="J16" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="D18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="D19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="39">
+        <v>5</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="39">
+        <v>5</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="D22" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E22" s="39">
+        <v>5</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H22" s="39">
+        <v>5</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K22" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="G29" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="J29" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="D31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="D32" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="39">
+        <v>5</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="39">
+        <v>5</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39">
+        <v>0</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39">
+        <v>0</v>
+      </c>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D34" s="38">
+        <v>1</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1</v>
+      </c>
+      <c r="G34" s="38">
+        <v>1</v>
+      </c>
+      <c r="H34" s="39">
+        <v>1</v>
+      </c>
+      <c r="J34" s="38">
+        <v>1</v>
+      </c>
+      <c r="K34" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="D35" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E35" s="39">
+        <v>5</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H35" s="39">
+        <v>5</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K35" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="G42" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="J42" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="K42" s="40"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="39">
+        <v>5</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="39">
+        <v>5</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39">
+        <v>0</v>
+      </c>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="38"/>
+      <c r="K46" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47" s="38">
+        <v>1</v>
+      </c>
+      <c r="E47" s="39">
+        <v>1</v>
+      </c>
+      <c r="G47" s="38">
+        <v>1</v>
+      </c>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
+      <c r="J47" s="38">
+        <v>1</v>
+      </c>
+      <c r="K47" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="39">
+        <v>5</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H48" s="39">
+        <v>5</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K48" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="G55" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="J55" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" s="40"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="D57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="D58" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="39">
+        <v>5</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="39">
+        <v>5</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39">
+        <v>0</v>
+      </c>
+      <c r="G59" s="38"/>
+      <c r="H59" s="39">
+        <v>0</v>
+      </c>
+      <c r="J59" s="38"/>
+      <c r="K59" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D60" s="38">
+        <v>1</v>
+      </c>
+      <c r="E60" s="39">
+        <v>1</v>
+      </c>
+      <c r="G60" s="38">
+        <v>1</v>
+      </c>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
+      <c r="J60" s="38">
+        <v>1</v>
+      </c>
+      <c r="K60" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="D61" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E61" s="39">
+        <v>5</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H61" s="39">
+        <v>5</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K61" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="G68" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="J68" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="D70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="D71" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="39">
+        <v>5</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="39">
+        <v>5</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39">
+        <v>0</v>
+      </c>
+      <c r="G72" s="38"/>
+      <c r="H72" s="39">
+        <v>0</v>
+      </c>
+      <c r="J72" s="38"/>
+      <c r="K72" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73" s="38">
+        <v>1</v>
+      </c>
+      <c r="E73" s="39">
+        <v>1</v>
+      </c>
+      <c r="G73" s="38">
+        <v>1</v>
+      </c>
+      <c r="H73" s="39">
+        <v>1</v>
+      </c>
+      <c r="J73" s="38">
+        <v>1</v>
+      </c>
+      <c r="K73" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="D74" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E74" s="39">
+        <v>5</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H74" s="39">
+        <v>5</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="K74" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="E81" s="40"/>
+      <c r="G81" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="H81" s="40"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="D83" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="D84" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="39">
+        <v>3</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D85" s="38"/>
+      <c r="E85" s="39">
+        <v>0</v>
+      </c>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" s="38">
+        <v>1</v>
+      </c>
+      <c r="E86" s="39">
+        <v>1</v>
+      </c>
+      <c r="G86" s="38">
+        <v>1</v>
+      </c>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="D87" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="E87" s="39">
+        <v>5</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="H87" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="E94" s="40"/>
+      <c r="G94" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="H94" s="40"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="39">
+        <v>3</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39">
+        <v>0</v>
+      </c>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="39">
+        <v>3</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D100" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="E100" s="39">
+        <v>5</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="H100" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D101" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="E101" s="39">
+        <v>5</v>
+      </c>
+      <c r="G101" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="H101" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="E105" s="40"/>
+      <c r="G105" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="H105" s="40"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D107" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="39">
+        <v>5</v>
+      </c>
+      <c r="G108" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D109" s="38"/>
+      <c r="E109" s="39">
+        <v>0</v>
+      </c>
+      <c r="G109" s="38"/>
+      <c r="H109" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D110" s="38">
+        <v>1</v>
+      </c>
+      <c r="E110" s="39">
+        <v>1</v>
+      </c>
+      <c r="G110" s="38">
+        <v>1</v>
+      </c>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E111" s="39">
+        <v>5</v>
+      </c>
+      <c r="G111" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H111" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="E117" s="40"/>
+      <c r="G117" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="H117" s="40"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D120" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="39">
+        <v>5</v>
+      </c>
+      <c r="G120" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D121" s="38"/>
+      <c r="E121" s="39">
+        <v>0</v>
+      </c>
+      <c r="G121" s="38"/>
+      <c r="H121" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D122" s="38">
+        <v>1</v>
+      </c>
+      <c r="E122" s="39">
+        <v>1</v>
+      </c>
+      <c r="G122" s="38">
+        <v>1</v>
+      </c>
+      <c r="H122" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E123" s="39">
+        <v>5</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="H123" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E130" s="41"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="12"/>
+      <c r="D136" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="E136" s="39">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>